--- a/LubanFiles/MyTest/datas/__beans__.xlsx
+++ b/LubanFiles/MyTest/datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SelfCode\LubanFiles\MyTest\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DADBA-E224-4595-8F20-9FA4CE71A339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D0BAFD-128E-49FA-9053-EE1DEB3D3F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>Item.EquipInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,16 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="5" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="9" width="15" customWidth="1"/>
     <col min="10" max="13" width="13.5" customWidth="1"/>
   </cols>
@@ -670,7 +696,35 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
